--- a/data-manipulation/southpuget-samples.xlsx
+++ b/data-manipulation/southpuget-samples.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="129">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -98,331 +98,316 @@
     <t>10</t>
   </si>
   <si>
-    <t>2350</t>
-  </si>
-  <si>
-    <t>2077</t>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>2420</t>
+  </si>
+  <si>
+    <t>2260</t>
+  </si>
+  <si>
+    <t>2601</t>
+  </si>
+  <si>
+    <t>2705</t>
+  </si>
+  <si>
+    <t>2160</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Debris Burn</t>
+  </si>
+  <si>
+    <t>Miscellaneou</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>8.07</t>
+  </si>
+  <si>
+    <t>&lt;Null&gt;</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>1.1000000000000001</t>
+  </si>
+  <si>
+    <t>39.799999999999997</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>NORTHEAST</t>
+  </si>
+  <si>
+    <t>2315</t>
+  </si>
+  <si>
+    <t>2118</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>2236</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>2.2000000000000002</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1516</t>
+  </si>
+  <si>
+    <t>3425</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>1624</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Undetermined</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>2136</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2935</t>
+  </si>
+  <si>
+    <t>2239</t>
+  </si>
+  <si>
+    <t>1748</t>
+  </si>
+  <si>
+    <t>2820</t>
   </si>
   <si>
     <t>2200</t>
   </si>
   <si>
-    <t>1941</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>1300</t>
+    <t>Under Invest</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>2775</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Railroad</t>
+  </si>
+  <si>
+    <t>4142</t>
+  </si>
+  <si>
+    <t>6300</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>1555</t>
+  </si>
+  <si>
+    <t>2320</t>
+  </si>
+  <si>
+    <t>3080</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>9.3000000000000007</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>2900</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>3060</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2676</t>
+  </si>
+  <si>
+    <t>2255</t>
+  </si>
+  <si>
+    <t>1521</t>
   </si>
   <si>
     <t>2560</t>
   </si>
   <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>Miscellaneou</t>
-  </si>
-  <si>
-    <t>Undetermined</t>
-  </si>
-  <si>
-    <t>Debris Burn</t>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>&lt;Null&gt;</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>1.1000000000000001</t>
-  </si>
-  <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>NORTHEAST</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>1346</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>2254</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>1920</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>2.0299999999999998</t>
-  </si>
-  <si>
-    <t>8.07</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>2260</t>
-  </si>
-  <si>
-    <t>1720</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>1925</t>
-  </si>
-  <si>
-    <t>Recreation</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.2000000000000002</t>
-  </si>
-  <si>
-    <t>1325</t>
-  </si>
-  <si>
-    <t>2420</t>
-  </si>
-  <si>
-    <t>1528</t>
-  </si>
-  <si>
-    <t>3050</t>
-  </si>
-  <si>
-    <t>1516</t>
-  </si>
-  <si>
-    <t>2135</t>
-  </si>
-  <si>
-    <t>3637</t>
-  </si>
-  <si>
-    <t>1636</t>
-  </si>
-  <si>
-    <t>2.2999999999999998</t>
-  </si>
-  <si>
-    <t>5.0999999999999996</t>
-  </si>
-  <si>
-    <t>1.5</t>
+    <t>2140</t>
+  </si>
+  <si>
+    <t>1100</t>
   </si>
   <si>
     <t>1.2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4908</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>1900</t>
-  </si>
-  <si>
-    <t>1560</t>
-  </si>
-  <si>
-    <t>Arson</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>5200</t>
-  </si>
-  <si>
-    <t>2361</t>
-  </si>
-  <si>
-    <t>2750</t>
-  </si>
-  <si>
-    <t>3271</t>
-  </si>
-  <si>
-    <t>3213</t>
-  </si>
-  <si>
-    <t>2060</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>3417</t>
-  </si>
-  <si>
-    <t>2148</t>
-  </si>
-  <si>
-    <t>2341</t>
-  </si>
-  <si>
-    <t>Logging</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>3800</t>
-  </si>
-  <si>
-    <t>2136</t>
-  </si>
-  <si>
-    <t>2324</t>
-  </si>
-  <si>
-    <t>1817</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>2080</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>3061</t>
-  </si>
-  <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>2272</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>6300</t>
-  </si>
-  <si>
-    <t>1252</t>
-  </si>
-  <si>
-    <t>2925</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>2375</t>
-  </si>
-  <si>
-    <t>2213</t>
-  </si>
-  <si>
-    <t>2150</t>
-  </si>
-  <si>
-    <t>9.3000000000000007</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>8.8000000000000007</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>2427</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>1273</t>
   </si>
   <si>
+    <t>2734</t>
+  </si>
+  <si>
+    <t>2493</t>
+  </si>
+  <si>
     <t>2600</t>
   </si>
   <si>
-    <t>3425</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>11.6</t>
+    <t>2274</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>2253</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>3875</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -526,25 +511,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>13682.0</v>
+        <v>9479.0</v>
       </c>
       <c r="C2" t="n">
-        <v>26.0</v>
+        <v>37.0</v>
       </c>
       <c r="D2" t="n">
-        <v>40.0</v>
+        <v>29.0</v>
       </c>
       <c r="E2" t="n">
-        <v>36.0</v>
+        <v>18.0</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>17.0</v>
+        <v>8.07</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
@@ -553,22 +538,22 @@
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.71395</v>
+        <v>48.70328</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.70888</v>
+        <v>-119.212</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>534745.2000000005</v>
+        <v>406979.9999999997</v>
       </c>
       <c r="P2" t="n">
-        <v>78534.49999999967</v>
+        <v>187360.79999999993</v>
       </c>
     </row>
     <row r="3">
@@ -576,25 +561,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>12013.0</v>
+        <v>2206.0</v>
       </c>
       <c r="C3" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D3" t="n">
         <v>29.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>43.0</v>
-      </c>
       <c r="E3" t="n">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>1.89</v>
+        <v>11.8</v>
       </c>
       <c r="I3" t="s">
         <v>39</v>
@@ -603,22 +588,22 @@
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.96508</v>
+        <v>48.67768</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.39563</v>
+        <v>-119.1575</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
-        <v>561371.4500000003</v>
+        <v>411612.5000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>106158.80000000005</v>
+        <v>184544.80000000025</v>
       </c>
     </row>
     <row r="4">
@@ -626,16 +611,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>18041.0</v>
+        <v>5678.0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -644,31 +629,31 @@
         <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>1.75</v>
+        <v>9.0</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.42171</v>
+        <v>48.30957</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.89775</v>
+        <v>-118.09886</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>518691.2499999998</v>
+        <v>501596.89999999985</v>
       </c>
       <c r="P4" t="n">
-        <v>156388.09999999971</v>
+        <v>144052.7000000001</v>
       </c>
     </row>
     <row r="5">
@@ -676,49 +661,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>78.0</v>
+        <v>16652.0</v>
       </c>
       <c r="C5" t="n">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="D5" t="n">
-        <v>43.0</v>
+        <v>20.0</v>
       </c>
       <c r="E5" t="n">
-        <v>22.0</v>
+        <v>44.0</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>2.72</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.54907</v>
+        <v>48.3647</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.36062</v>
+        <v>-120.33776</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>564347.3000000003</v>
+        <v>311290.39999999973</v>
       </c>
       <c r="P5" t="n">
-        <v>60397.70000000004</v>
+        <v>150116.9999999999</v>
       </c>
     </row>
     <row r="6">
@@ -726,49 +711,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>3865.0</v>
+        <v>10610.0</v>
       </c>
       <c r="C6" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="D6" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="E6" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>9.8</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.29354</v>
+        <v>48.5504</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.36265</v>
+        <v>-119.0198</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
-        <v>564174.7499999998</v>
+        <v>423316.9999999997</v>
       </c>
       <c r="P6" t="n">
-        <v>142289.40000000002</v>
+        <v>170544.00000000038</v>
       </c>
     </row>
     <row r="7">
@@ -776,49 +761,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>8258.0</v>
+        <v>3040.0</v>
       </c>
       <c r="C7" t="n">
-        <v>31.0</v>
+        <v>40.0</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0</v>
+        <v>28.0</v>
       </c>
       <c r="E7" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.15047</v>
+        <v>48.92899</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.11519</v>
+        <v>-119.28458</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>585208.8500000001</v>
+        <v>400810.69999999955</v>
       </c>
       <c r="P7" t="n">
-        <v>126551.69999999984</v>
+        <v>212188.89999999988</v>
       </c>
     </row>
     <row r="8">
@@ -826,49 +811,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>2980.0</v>
+        <v>4200.0</v>
       </c>
       <c r="C8" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.0</v>
+        <v>39.0</v>
       </c>
       <c r="E8" t="n">
-        <v>33.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>73.0</v>
+        <v>1.1</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.6634</v>
+        <v>48.56333</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.69324</v>
+        <v>-117.91119</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
-        <v>366074.59999999974</v>
+        <v>517548.84999999957</v>
       </c>
       <c r="P8" t="n">
-        <v>182974.00000000032</v>
+        <v>171966.30000000005</v>
       </c>
     </row>
     <row r="9">
@@ -876,49 +861,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>4545.0</v>
+        <v>12119.0</v>
       </c>
       <c r="C9" t="n">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="D9" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="E9" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>76.0</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.96497</v>
+        <v>48.46246</v>
       </c>
       <c r="L9" t="n">
-        <v>-119.40521</v>
+        <v>-119.57882</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>390557.15000000026</v>
+        <v>375800.30000000057</v>
       </c>
       <c r="P9" t="n">
-        <v>216146.7000000001</v>
+        <v>160870.6</v>
       </c>
     </row>
     <row r="10">
@@ -926,49 +911,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>8065.0</v>
+        <v>3873.0</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="E10" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.84091</v>
+        <v>47.65578</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.78015</v>
+        <v>-117.53166</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>528687.2499999995</v>
+        <v>549808.8999999998</v>
       </c>
       <c r="P10" t="n">
-        <v>92500.10000000011</v>
+        <v>72135.8</v>
       </c>
     </row>
     <row r="11">
@@ -976,49 +961,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>11943.0</v>
+        <v>16414.0</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0</v>
+        <v>32.0</v>
       </c>
       <c r="E11" t="n">
-        <v>32.0</v>
+        <v>14.0</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>1.1</v>
+        <v>39.8</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.53101</v>
+        <v>48.96102</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.66383</v>
+        <v>-118.74747</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
-        <v>538574.4499999996</v>
+        <v>446465.0499999994</v>
       </c>
       <c r="P11" t="n">
-        <v>58411.10000000022</v>
+        <v>215712.19999999975</v>
       </c>
     </row>
   </sheetData>
@@ -1087,49 +1072,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>11996.0</v>
+        <v>15453.0</v>
       </c>
       <c r="C2" t="n">
-        <v>21.0</v>
+        <v>39.0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.0</v>
+        <v>28.0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>1.8</v>
+        <v>9.0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.26502</v>
+        <v>48.84879</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.10725</v>
+        <v>-119.2567</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>585883.7500000006</v>
+        <v>403180.5000000004</v>
       </c>
       <c r="P2" t="n">
-        <v>29152.19999999998</v>
+        <v>203366.9000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1137,49 +1122,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>16239.0</v>
+        <v>8812.0</v>
       </c>
       <c r="C3" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="E3" t="n">
-        <v>29.0</v>
+        <v>8.0</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>3.0</v>
+        <v>1.9</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.73566</v>
+        <v>47.6774</v>
       </c>
       <c r="L3" t="n">
-        <v>-118.29384</v>
+        <v>-117.52063</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
-        <v>485023.59999999974</v>
+        <v>550746.4500000003</v>
       </c>
       <c r="P3" t="n">
-        <v>80922.60000000031</v>
+        <v>74513.99999999985</v>
       </c>
     </row>
     <row r="4">
@@ -1187,49 +1172,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>8446.0</v>
+        <v>5814.0</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.291</v>
+        <v>48.18556</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.65787</v>
+        <v>-118.41811</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>539081.0499999998</v>
+        <v>474460.65000000014</v>
       </c>
       <c r="P4" t="n">
-        <v>32009.99999999965</v>
+        <v>130411.60000000027</v>
       </c>
     </row>
     <row r="5">
@@ -1237,49 +1222,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>14901.0</v>
+        <v>10895.0</v>
       </c>
       <c r="C5" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="D5" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="E5" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>22.5</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.32831</v>
+        <v>48.9317</v>
       </c>
       <c r="L5" t="n">
-        <v>-119.65997</v>
+        <v>-119.59082</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>368902.5499999999</v>
+        <v>374780.3000000005</v>
       </c>
       <c r="P5" t="n">
-        <v>146114.1000000002</v>
+        <v>212486.9999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1287,49 +1272,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>15655.0</v>
+        <v>18173.0</v>
       </c>
       <c r="C6" t="n">
-        <v>40.0</v>
+        <v>26.0</v>
       </c>
       <c r="D6" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="E6" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>49.0</v>
+        <v>19.0</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.9683</v>
+        <v>47.73211</v>
       </c>
       <c r="L6" t="n">
-        <v>-118.78028</v>
+        <v>-118.26191</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
-        <v>443676.1999999996</v>
+        <v>487737.64999999997</v>
       </c>
       <c r="P6" t="n">
-        <v>216512.9999999999</v>
+        <v>80532.09999999986</v>
       </c>
     </row>
     <row r="7">
@@ -1337,49 +1322,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>2280.0</v>
+        <v>3849.0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="D7" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="E7" t="n">
-        <v>27.0</v>
+        <v>6.0</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.07637</v>
+        <v>47.34653</v>
       </c>
       <c r="L7" t="n">
-        <v>-118.13189</v>
+        <v>-118.7142</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>498789.35000000015</v>
+        <v>449292.99999999953</v>
       </c>
       <c r="P7" t="n">
-        <v>118400.69999999969</v>
+        <v>38118.30000000015</v>
       </c>
     </row>
     <row r="8">
@@ -1387,49 +1372,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>1047.0</v>
+        <v>18825.0</v>
       </c>
       <c r="C8" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="D8" t="n">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="H8" t="n">
-        <v>11.6</v>
+        <v>2.0</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.69166</v>
+        <v>47.827</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.36015</v>
+        <v>-117.86674</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
-        <v>564387.2499999997</v>
+        <v>521327.1000000006</v>
       </c>
       <c r="P8" t="n">
-        <v>76082.59999999987</v>
+        <v>90969.9999999998</v>
       </c>
     </row>
     <row r="9">
@@ -1437,49 +1422,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>15210.0</v>
+        <v>4365.0</v>
       </c>
       <c r="C9" t="n">
         <v>25.0</v>
       </c>
       <c r="D9" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="E9" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H9" t="n">
-        <v>3.0</v>
+        <v>1.1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.6526</v>
+        <v>47.65192</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.92952</v>
+        <v>-117.48878</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>515990.8000000003</v>
+        <v>553453.6999999995</v>
       </c>
       <c r="P9" t="n">
-        <v>71785.99999999996</v>
+        <v>71711.19999999966</v>
       </c>
     </row>
     <row r="10">
@@ -1487,49 +1472,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>1309.0</v>
+        <v>15577.0</v>
       </c>
       <c r="C10" t="n">
-        <v>23.0</v>
+        <v>39.0</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.48369</v>
+        <v>48.85658</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.55844</v>
+        <v>-117.61795</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>547532.5999999996</v>
+        <v>542474.2500000006</v>
       </c>
       <c r="P10" t="n">
-        <v>53205.900000000314</v>
+        <v>204223.8000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1537,49 +1522,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>7988.0</v>
+        <v>4359.0</v>
       </c>
       <c r="C11" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="D11" t="n">
-        <v>33.0</v>
+        <v>27.0</v>
       </c>
       <c r="E11" t="n">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.76037</v>
+        <v>48.92104</v>
       </c>
       <c r="L11" t="n">
-        <v>-118.59027</v>
+        <v>-119.47031</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
-        <v>459827.0499999997</v>
+        <v>385023.6500000002</v>
       </c>
       <c r="P11" t="n">
-        <v>193640.7000000002</v>
+        <v>211314.39999999976</v>
       </c>
     </row>
   </sheetData>
@@ -1648,49 +1633,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>5356.0</v>
+        <v>6304.0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.0</v>
+        <v>24.0</v>
       </c>
       <c r="D2" t="n">
-        <v>32.0</v>
+        <v>44.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.03</v>
+        <v>11.7</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.91803</v>
+        <v>47.59974</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.73692</v>
+        <v>-117.17683</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>447361.80000000016</v>
+        <v>579969.4500000004</v>
       </c>
       <c r="P2" t="n">
-        <v>210983.3000000002</v>
+        <v>65971.39999999967</v>
       </c>
     </row>
     <row r="3">
@@ -1698,49 +1683,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>18646.0</v>
+        <v>6635.0</v>
       </c>
       <c r="C3" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.0</v>
+        <v>24.0</v>
       </c>
       <c r="E3" t="n">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>3.0</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.1832</v>
+        <v>48.38582</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.30352</v>
+        <v>-119.80124</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
-        <v>569200.7999999995</v>
+        <v>356894.5999999994</v>
       </c>
       <c r="P3" t="n">
-        <v>130151.99999999993</v>
+        <v>152440.20000000027</v>
       </c>
     </row>
     <row r="4">
@@ -1748,49 +1733,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>13802.0</v>
+        <v>1892.0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.0</v>
+        <v>44.0</v>
       </c>
       <c r="E4" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>19.6</v>
+        <v>1.28</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.09638</v>
+        <v>48.27946</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.82756</v>
+        <v>-117.28179</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>354657.39999999956</v>
+        <v>571047.85</v>
       </c>
       <c r="P4" t="n">
-        <v>120601.80000000038</v>
+        <v>140740.60000000003</v>
       </c>
     </row>
     <row r="5">
@@ -1798,49 +1783,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>9479.0</v>
+        <v>1755.0</v>
       </c>
       <c r="C5" t="n">
-        <v>37.0</v>
+        <v>28.0</v>
       </c>
       <c r="D5" t="n">
-        <v>29.0</v>
+        <v>43.0</v>
       </c>
       <c r="E5" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>8.07</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.70328</v>
+        <v>47.91252</v>
       </c>
       <c r="L5" t="n">
-        <v>-119.212</v>
+        <v>-117.31815</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>406979.9999999997</v>
+        <v>567957.2499999998</v>
       </c>
       <c r="P5" t="n">
-        <v>187360.79999999993</v>
+        <v>100377.20000000007</v>
       </c>
     </row>
     <row r="6">
@@ -1848,49 +1833,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>2381.0</v>
+        <v>15997.0</v>
       </c>
       <c r="C6" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="D6" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="E6" t="n">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>27.0</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.36395</v>
+        <v>47.92335</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.59897</v>
+        <v>-117.31831</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
-        <v>544087.5500000005</v>
+        <v>567943.6500000003</v>
       </c>
       <c r="P6" t="n">
-        <v>40034.50000000029</v>
+        <v>101568.49999999991</v>
       </c>
     </row>
     <row r="7">
@@ -1898,49 +1883,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>18290.0</v>
+        <v>9585.0</v>
       </c>
       <c r="C7" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>36.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>29.0</v>
-      </c>
       <c r="E7" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>3.0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.64996</v>
+        <v>47.84454</v>
       </c>
       <c r="L7" t="n">
-        <v>-119.21483</v>
+        <v>-118.32623</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>406739.4499999995</v>
+        <v>482270.4500000004</v>
       </c>
       <c r="P7" t="n">
-        <v>181495.6</v>
+        <v>92899.40000000023</v>
       </c>
     </row>
     <row r="8">
@@ -1948,49 +1933,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>11194.0</v>
+        <v>11430.0</v>
       </c>
       <c r="C8" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="D8" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="E8" t="n">
-        <v>18.0</v>
+        <v>31.0</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>20.0</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.0181</v>
+        <v>47.88378</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.60362</v>
+        <v>-117.43023</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
-        <v>373692.29999999946</v>
+        <v>558430.4500000004</v>
       </c>
       <c r="P8" t="n">
-        <v>111990.99999999967</v>
+        <v>97215.80000000018</v>
       </c>
     </row>
     <row r="9">
@@ -1998,49 +1983,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>1533.0</v>
+        <v>5338.0</v>
       </c>
       <c r="C9" t="n">
         <v>27.0</v>
       </c>
       <c r="D9" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="E9" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
       <c r="H9" t="n">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.82909</v>
+        <v>47.85139</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.4139</v>
+        <v>-117.69343</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>559818.5000000001</v>
+        <v>536058.4499999995</v>
       </c>
       <c r="P9" t="n">
-        <v>91199.90000000008</v>
+        <v>93652.90000000023</v>
       </c>
     </row>
     <row r="10">
@@ -2048,49 +2033,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>8397.0</v>
+        <v>294.0</v>
       </c>
       <c r="C10" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="D10" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>34.0</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>93.0</v>
+        <v>3.0</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.34546</v>
+        <v>47.88401</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.58228</v>
+        <v>-117.34985</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>545506.2000000002</v>
+        <v>565262.7499999997</v>
       </c>
       <c r="P10" t="n">
-        <v>38000.600000000304</v>
+        <v>97241.10000000038</v>
       </c>
     </row>
     <row r="11">
@@ -2098,49 +2083,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>12854.0</v>
+        <v>12112.0</v>
       </c>
       <c r="C11" t="n">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.0</v>
+        <v>45.0</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.8188</v>
+        <v>48.200741</v>
       </c>
       <c r="L11" t="n">
-        <v>-118.16472</v>
+        <v>-120.152574</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
-        <v>495998.79999999976</v>
+        <v>327031.2099999999</v>
       </c>
       <c r="P11" t="n">
-        <v>200068.00000000035</v>
+        <v>132081.51000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2209,49 +2194,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>14895.0</v>
+        <v>3830.0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.0</v>
+        <v>24.0</v>
       </c>
       <c r="D2" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.72397</v>
+        <v>47.59264</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.0301</v>
+        <v>-117.5595</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>507441.4999999996</v>
+        <v>547442.5</v>
       </c>
       <c r="P2" t="n">
-        <v>189636.70000000016</v>
+        <v>65190.40000000032</v>
       </c>
     </row>
     <row r="3">
@@ -2259,49 +2244,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>6680.0</v>
+        <v>1467.0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="D3" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0</v>
+        <v>17.0</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.80711</v>
+        <v>47.75649</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.49995</v>
+        <v>-117.39253</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
-        <v>552504.2500000001</v>
+        <v>561634.9500000005</v>
       </c>
       <c r="P3" t="n">
-        <v>88782.10000000017</v>
+        <v>83213.89999999994</v>
       </c>
     </row>
     <row r="4">
@@ -2309,49 +2294,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>19203.0</v>
+        <v>5670.0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3</v>
+        <v>2.0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.57443</v>
+        <v>47.82245</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.2303</v>
+        <v>-118.42807</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>575424.5</v>
+        <v>473614.0499999995</v>
       </c>
       <c r="P4" t="n">
-        <v>63187.29999999995</v>
+        <v>90469.50000000038</v>
       </c>
     </row>
     <row r="5">
@@ -2359,49 +2344,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>17442.0</v>
+        <v>7988.0</v>
       </c>
       <c r="C5" t="n">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="E5" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
         <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>7.75</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.44319</v>
+        <v>48.76037</v>
       </c>
       <c r="L5" t="n">
-        <v>-118.09266</v>
+        <v>-118.59027</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>502123.90000000043</v>
+        <v>459827.0499999997</v>
       </c>
       <c r="P5" t="n">
-        <v>158750.90000000014</v>
+        <v>193640.7000000002</v>
       </c>
     </row>
     <row r="6">
@@ -2409,49 +2394,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>1553.0</v>
+        <v>15557.0</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="E6" t="n">
-        <v>18.0</v>
+        <v>2.0</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.0986</v>
+        <v>47.68771</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.30327</v>
+        <v>-117.32792</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
-        <v>569222.0500000002</v>
+        <v>567126.7999999995</v>
       </c>
       <c r="P6" t="n">
-        <v>120845.99999999974</v>
+        <v>75648.1000000003</v>
       </c>
     </row>
     <row r="7">
@@ -2459,49 +2444,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>7766.0</v>
+        <v>13802.0</v>
       </c>
       <c r="C7" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="D7" t="n">
-        <v>36.0</v>
+        <v>24.0</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>19.6</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.91711</v>
+        <v>48.09638</v>
       </c>
       <c r="L7" t="n">
-        <v>-118.28422</v>
+        <v>-119.82756</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>485841.2999999996</v>
+        <v>354657.39999999956</v>
       </c>
       <c r="P7" t="n">
-        <v>100882.10000000011</v>
+        <v>120601.80000000038</v>
       </c>
     </row>
     <row r="8">
@@ -2509,49 +2494,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>17793.0</v>
+        <v>101.0</v>
       </c>
       <c r="C8" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="D8" t="n">
-        <v>24.0</v>
+        <v>37.0</v>
       </c>
       <c r="E8" t="n">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>4.0</v>
+        <v>5.2</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1725</v>
+        <v>48.44755</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.80114</v>
+        <v>-118.17995</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
-        <v>356903.0999999997</v>
+        <v>494704.24999999953</v>
       </c>
       <c r="P8" t="n">
-        <v>128974.99999999994</v>
+        <v>159230.49999999997</v>
       </c>
     </row>
     <row r="9">
@@ -2559,49 +2544,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>10218.0</v>
+        <v>6452.0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="E9" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
         <v>67</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.83339</v>
+        <v>47.63015</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.72059</v>
+        <v>-117.4461</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>533749.8499999999</v>
+        <v>557081.4999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>91672.90000000015</v>
+        <v>69316.50000000004</v>
       </c>
     </row>
     <row r="10">
@@ -2609,49 +2594,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>5136.0</v>
+        <v>3504.0</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="D10" t="n">
-        <v>41.0</v>
+        <v>28.0</v>
       </c>
       <c r="E10" t="n">
-        <v>17.0</v>
+        <v>33.0</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.65923</v>
+        <v>48.65618</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.64962</v>
+        <v>-119.30036</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>539782.3000000002</v>
+        <v>399469.4000000002</v>
       </c>
       <c r="P10" t="n">
-        <v>72515.30000000009</v>
+        <v>182179.7999999999</v>
       </c>
     </row>
     <row r="11">
@@ -2659,49 +2644,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>8083.0</v>
+        <v>234.0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="D11" t="n">
-        <v>44.0</v>
+        <v>39.0</v>
       </c>
       <c r="E11" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.83688</v>
+        <v>47.40419</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.24275</v>
+        <v>-117.84174</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
-        <v>574366.2499999999</v>
+        <v>523452.09999999986</v>
       </c>
       <c r="P11" t="n">
-        <v>92056.80000000008</v>
+        <v>44460.89999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2770,49 +2755,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>12259.0</v>
+        <v>146.0</v>
       </c>
       <c r="C2" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="D2" t="n">
-        <v>24.0</v>
+        <v>44.0</v>
       </c>
       <c r="E2" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.0928</v>
+        <v>47.95184</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.84392</v>
+        <v>-117.2689</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>353266.8000000002</v>
+        <v>572143.4999999998</v>
       </c>
       <c r="P2" t="n">
-        <v>120207.99999999965</v>
+        <v>104702.39999999969</v>
       </c>
     </row>
     <row r="3">
@@ -2820,49 +2805,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>9801.0</v>
+        <v>16816.0</v>
       </c>
       <c r="C3" t="n">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="E3" t="n">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.74652</v>
+        <v>48.9456</v>
       </c>
       <c r="L3" t="n">
-        <v>-118.05269</v>
+        <v>-117.78628</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
-        <v>505521.35000000015</v>
+        <v>528166.1999999996</v>
       </c>
       <c r="P3" t="n">
-        <v>82117.19999999965</v>
+        <v>214015.99999999988</v>
       </c>
     </row>
     <row r="4">
@@ -2870,49 +2855,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>3830.0</v>
+        <v>4442.0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="D4" t="n">
-        <v>42.0</v>
+        <v>28.0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.59264</v>
+        <v>48.78343</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.5595</v>
+        <v>-119.31143</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>547442.5</v>
+        <v>398528.4499999999</v>
       </c>
       <c r="P4" t="n">
-        <v>65190.40000000032</v>
+        <v>196177.3000000003</v>
       </c>
     </row>
     <row r="5">
@@ -2920,49 +2905,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>16276.0</v>
+        <v>8371.0</v>
       </c>
       <c r="C5" t="n">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="D5" t="n">
-        <v>22.0</v>
+        <v>40.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>15.39</v>
+        <v>31.0</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.3074</v>
+        <v>47.83377</v>
       </c>
       <c r="L5" t="n">
-        <v>-120.04869</v>
+        <v>-117.80681</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>335861.35000000056</v>
+        <v>526421.1500000001</v>
       </c>
       <c r="P5" t="n">
-        <v>143814.00000000015</v>
+        <v>91714.70000000014</v>
       </c>
     </row>
     <row r="6">
@@ -2970,49 +2955,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>9927.0</v>
+        <v>1878.0</v>
       </c>
       <c r="C6" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="D6" t="n">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="E6" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.42972</v>
+        <v>48.67046</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.75804</v>
+        <v>-118.64026</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
-        <v>360566.6000000005</v>
+        <v>455577.9000000002</v>
       </c>
       <c r="P6" t="n">
-        <v>157269.20000000036</v>
+        <v>183750.59999999983</v>
       </c>
     </row>
     <row r="7">
@@ -3020,49 +3005,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>5670.0</v>
+        <v>20158.0</v>
       </c>
       <c r="C7" t="n">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="D7" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="E7" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.82245</v>
+        <v>48.93475</v>
       </c>
       <c r="L7" t="n">
-        <v>-118.42807</v>
+        <v>-118.56861</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>473614.0499999995</v>
+        <v>461668.14999999944</v>
       </c>
       <c r="P7" t="n">
-        <v>90469.50000000038</v>
+        <v>212822.50000000012</v>
       </c>
     </row>
     <row r="8">
@@ -3070,49 +3055,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>6741.0</v>
+        <v>4303.0</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="D8" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="E8" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>20.5</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.54533</v>
+        <v>48.30437</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.56833</v>
+        <v>-120.0487</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
-        <v>376691.9499999997</v>
+        <v>335860.5000000003</v>
       </c>
       <c r="P8" t="n">
-        <v>169986.3</v>
+        <v>143480.69999999987</v>
       </c>
     </row>
     <row r="9">
@@ -3120,25 +3105,25 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>6276.0</v>
+        <v>3626.0</v>
       </c>
       <c r="C9" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="D9" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>33.0</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>1.5</v>
+        <v>24.7</v>
       </c>
       <c r="I9" t="s">
         <v>81</v>
@@ -3147,22 +3132,22 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.19406</v>
+        <v>48.22896</v>
       </c>
       <c r="L9" t="n">
-        <v>-119.88193</v>
+        <v>-120.09269</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>350035.95000000024</v>
+        <v>332121.3499999996</v>
       </c>
       <c r="P9" t="n">
-        <v>131346.60000000003</v>
+        <v>135185.6000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3170,49 +3155,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>15542.0</v>
+        <v>16296.0</v>
       </c>
       <c r="C10" t="n">
-        <v>33.0</v>
+        <v>21.0</v>
       </c>
       <c r="D10" t="n">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H10" t="n">
-        <v>11.5</v>
+        <v>22.0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.37192</v>
+        <v>47.3458</v>
       </c>
       <c r="L10" t="n">
-        <v>-119.62225</v>
+        <v>-117.63633</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>372108.7500000005</v>
+        <v>540911.95</v>
       </c>
       <c r="P10" t="n">
-        <v>150911.20000000033</v>
+        <v>38037.99999999967</v>
       </c>
     </row>
     <row r="11">
@@ -3220,25 +3205,25 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>8158.0</v>
+        <v>6953.0</v>
       </c>
       <c r="C11" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.0</v>
+        <v>13.0</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>1.2</v>
+        <v>2.29</v>
       </c>
       <c r="I11" t="s">
         <v>82</v>
@@ -3247,22 +3232,22 @@
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.84756</v>
+        <v>48.97203</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.73465</v>
+        <v>-117.43832</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
-        <v>532554.7499999999</v>
+        <v>557742.7999999996</v>
       </c>
       <c r="P11" t="n">
-        <v>203231.60000000015</v>
+        <v>216923.29999999964</v>
       </c>
     </row>
   </sheetData>
@@ -3331,49 +3316,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>5636.0</v>
+        <v>10353.0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
       <c r="D2" t="n">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="E2" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0</v>
+        <v>35.0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>4.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.3549</v>
+        <v>48.79389</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.80376</v>
+        <v>-120.2821</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>441680.40000000026</v>
+        <v>316021.5</v>
       </c>
       <c r="P2" t="n">
-        <v>149039.00000000006</v>
+        <v>197327.89999999973</v>
       </c>
     </row>
     <row r="3">
@@ -3381,49 +3366,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>2194.0</v>
+        <v>7748.0</v>
       </c>
       <c r="C3" t="n">
-        <v>37.0</v>
+        <v>29.0</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.70698</v>
+        <v>47.96951</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.80753</v>
+        <v>-119.95631</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
-        <v>356359.95</v>
+        <v>343713.64999999985</v>
       </c>
       <c r="P3" t="n">
-        <v>187767.80000000016</v>
+        <v>106646.09999999996</v>
       </c>
     </row>
     <row r="4">
@@ -3431,49 +3416,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>14158.0</v>
+        <v>4540.0</v>
       </c>
       <c r="C4" t="n">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D4" t="n">
-        <v>43.0</v>
+        <v>27.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8</v>
+        <v>9.9</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.51623</v>
+        <v>48.8017</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.3871</v>
+        <v>-119.37195</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>562096.4999999997</v>
+        <v>393384.2500000002</v>
       </c>
       <c r="P4" t="n">
-        <v>56785.30000000002</v>
+        <v>198186.99999999965</v>
       </c>
     </row>
     <row r="5">
@@ -3481,49 +3466,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>12375.0</v>
+        <v>13338.0</v>
       </c>
       <c r="C5" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="H5" t="n">
-        <v>70.0</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.72973</v>
+        <v>48.33237</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.73419</v>
+        <v>-117.39434</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>532593.8500000002</v>
+        <v>561481.1</v>
       </c>
       <c r="P5" t="n">
-        <v>190270.3000000004</v>
+        <v>146560.69999999972</v>
       </c>
     </row>
     <row r="6">
@@ -3531,49 +3516,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>2978.0</v>
+        <v>14400.0</v>
       </c>
       <c r="C6" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.0</v>
+        <v>28.0</v>
       </c>
       <c r="E6" t="n">
-        <v>31.0</v>
+        <v>14.0</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>19.4</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.6681</v>
+        <v>48.18815</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.93629</v>
+        <v>-119.27332</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
-        <v>515415.35000000003</v>
+        <v>401767.80000000016</v>
       </c>
       <c r="P6" t="n">
-        <v>183491.0000000003</v>
+        <v>130696.50000000003</v>
       </c>
     </row>
     <row r="7">
@@ -3581,49 +3566,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>1664.0</v>
+        <v>5740.0</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0</v>
+        <v>25.0</v>
       </c>
       <c r="D7" t="n">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
       <c r="E7" t="n">
-        <v>25.0</v>
+        <v>12.0</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>4.14</v>
+        <v>3.0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.50197</v>
+        <v>47.67732</v>
       </c>
       <c r="L7" t="n">
-        <v>-119.51337</v>
+        <v>-117.57451</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>381363.55000000045</v>
+        <v>546166.6499999997</v>
       </c>
       <c r="P7" t="n">
-        <v>165216.7</v>
+        <v>74505.20000000019</v>
       </c>
     </row>
     <row r="8">
@@ -3631,49 +3616,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>13923.0</v>
+        <v>8075.0</v>
       </c>
       <c r="C8" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="D8" t="n">
         <v>40.0</v>
       </c>
       <c r="E8" t="n">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>11.1</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.28015</v>
+        <v>47.60379</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.76614</v>
+        <v>-117.71212</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
-        <v>529878.1000000006</v>
+        <v>534469.8000000002</v>
       </c>
       <c r="P8" t="n">
-        <v>30816.49999999989</v>
+        <v>66416.89999999962</v>
       </c>
     </row>
     <row r="9">
@@ -3681,49 +3666,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>5078.0</v>
+        <v>12203.0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0</v>
+        <v>35.0</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0</v>
+        <v>21.0</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>11.1</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.85892</v>
+        <v>48.5213</v>
       </c>
       <c r="L9" t="n">
-        <v>-118.33686</v>
+        <v>-120.2657</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>481366.89999999985</v>
+        <v>317415.5000000004</v>
       </c>
       <c r="P9" t="n">
-        <v>94481.19999999975</v>
+        <v>167342.99999999962</v>
       </c>
     </row>
     <row r="10">
@@ -3731,49 +3716,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>19438.0</v>
+        <v>16414.0</v>
       </c>
       <c r="C10" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="D10" t="n">
-        <v>41.0</v>
+        <v>32.0</v>
       </c>
       <c r="E10" t="n">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>6.0</v>
+        <v>39.8</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.51987</v>
+        <v>48.96102</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.68975</v>
+        <v>-118.74747</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>536371.2499999997</v>
+        <v>446465.0499999994</v>
       </c>
       <c r="P10" t="n">
-        <v>167185.69999999972</v>
+        <v>215712.19999999975</v>
       </c>
     </row>
     <row r="11">
@@ -3781,49 +3766,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>18334.0</v>
+        <v>1533.0</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="E11" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>1.37</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.57822</v>
+        <v>47.82909</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.62086</v>
+        <v>-117.4139</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
-        <v>542226.9000000006</v>
+        <v>559818.5000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>63604.20000000019</v>
+        <v>91199.90000000008</v>
       </c>
     </row>
   </sheetData>
@@ -3892,49 +3877,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>4115.0</v>
+        <v>14085.0</v>
       </c>
       <c r="C2" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="D2" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="E2" t="n">
         <v>7.0</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.81137</v>
+        <v>48.72679</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.7436</v>
+        <v>-117.4136</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>361793.99999999994</v>
+        <v>559843.9999999998</v>
       </c>
       <c r="P2" t="n">
-        <v>199250.69999999963</v>
+        <v>189946.90000000014</v>
       </c>
     </row>
     <row r="3">
@@ -3942,49 +3927,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>1957.0</v>
+        <v>2126.0</v>
       </c>
       <c r="C3" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="D3" t="n">
-        <v>43.0</v>
+        <v>26.0</v>
       </c>
       <c r="E3" t="n">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>1.6</v>
+        <v>24.8</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.58205</v>
+        <v>48.78342</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.41982</v>
+        <v>-119.57454</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
-        <v>559315.2999999999</v>
+        <v>376164.1000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>64025.50000000026</v>
+        <v>196176.19999999995</v>
       </c>
     </row>
     <row r="4">
@@ -3992,49 +3977,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>9010.0</v>
+        <v>19212.0</v>
       </c>
       <c r="C4" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>10.0</v>
+        <v>9.3</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.56742</v>
+        <v>48.81715</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.63366</v>
+        <v>-119.75882</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>371138.8999999995</v>
+        <v>360500.3</v>
       </c>
       <c r="P4" t="n">
-        <v>172416.19999999984</v>
+        <v>199886.4999999998</v>
       </c>
     </row>
     <row r="5">
@@ -4042,49 +4027,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>10363.0</v>
+        <v>10992.0</v>
       </c>
       <c r="C5" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="D5" t="n">
-        <v>31.0</v>
+        <v>39.0</v>
       </c>
       <c r="E5" t="n">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H5" t="n">
-        <v>17.8</v>
+        <v>19.7</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.77503</v>
+        <v>48.94169</v>
       </c>
       <c r="L5" t="n">
-        <v>-118.92129</v>
+        <v>-117.89633</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>431690.3500000001</v>
+        <v>518811.9499999995</v>
       </c>
       <c r="P5" t="n">
-        <v>195253.3000000001</v>
+        <v>213585.90000000014</v>
       </c>
     </row>
     <row r="6">
@@ -4092,49 +4077,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>18945.0</v>
+        <v>1892.0</v>
       </c>
       <c r="C6" t="n">
-        <v>35.0</v>
+        <v>32.0</v>
       </c>
       <c r="D6" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="E6" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>1.28</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.54506</v>
+        <v>48.27946</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.60283</v>
+        <v>-117.28179</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
-        <v>543759.4500000002</v>
+        <v>571047.85</v>
       </c>
       <c r="P6" t="n">
-        <v>169956.59999999995</v>
+        <v>140740.60000000003</v>
       </c>
     </row>
     <row r="7">
@@ -4142,49 +4127,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>16178.0</v>
+        <v>15164.0</v>
       </c>
       <c r="C7" t="n">
         <v>31.0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.0</v>
+        <v>34.0</v>
       </c>
       <c r="E7" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H7" t="n">
-        <v>13.4</v>
+        <v>5.0</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.1942</v>
+        <v>48.14212</v>
       </c>
       <c r="L7" t="n">
-        <v>-119.75785</v>
+        <v>-118.55221</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>360582.7499999996</v>
+        <v>463062.1499999998</v>
       </c>
       <c r="P7" t="n">
-        <v>131362.00000000023</v>
+        <v>125633.19999999984</v>
       </c>
     </row>
     <row r="8">
@@ -4192,49 +4177,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>11471.0</v>
+        <v>17856.0</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="D8" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="E8" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="I8" t="s">
         <v>100</v>
       </c>
-      <c r="H8" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>101</v>
-      </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.35987</v>
+        <v>48.59418</v>
       </c>
       <c r="L8" t="n">
-        <v>-118.00629</v>
+        <v>-118.10205</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
-        <v>509465.3499999994</v>
+        <v>501325.74999999953</v>
       </c>
       <c r="P8" t="n">
-        <v>149585.7000000001</v>
+        <v>175359.80000000016</v>
       </c>
     </row>
     <row r="9">
@@ -4242,49 +4227,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>13167.0</v>
+        <v>12008.0</v>
       </c>
       <c r="C9" t="n">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="E9" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H9" t="n">
-        <v>6.0</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.27222</v>
+        <v>47.68103</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.51938</v>
+        <v>-117.66567</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>550852.7000000002</v>
+        <v>538418.0499999995</v>
       </c>
       <c r="P9" t="n">
-        <v>139944.1999999997</v>
+        <v>74913.29999999997</v>
       </c>
     </row>
     <row r="10">
@@ -4292,49 +4277,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>9820.0</v>
+        <v>10895.0</v>
       </c>
       <c r="C10" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="D10" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0</v>
+        <v>29.0</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.80504</v>
+        <v>48.9317</v>
       </c>
       <c r="L10" t="n">
-        <v>-119.34418</v>
+        <v>-119.59082</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>395744.7000000005</v>
+        <v>374780.3000000005</v>
       </c>
       <c r="P10" t="n">
-        <v>198554.3999999998</v>
+        <v>212486.9999999999</v>
       </c>
     </row>
     <row r="11">
@@ -4342,49 +4327,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>6774.0</v>
+        <v>19495.0</v>
       </c>
       <c r="C11" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="D11" t="n">
-        <v>44.0</v>
+        <v>25.0</v>
       </c>
       <c r="E11" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.26207</v>
+        <v>48.3603</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.21167</v>
+        <v>-119.70943</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
-        <v>577008.0500000002</v>
+        <v>364698.4500000002</v>
       </c>
       <c r="P11" t="n">
-        <v>138827.70000000016</v>
+        <v>149633.00000000026</v>
       </c>
     </row>
   </sheetData>
@@ -4453,16 +4438,16 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>3891.0</v>
+        <v>2232.0</v>
       </c>
       <c r="C2" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D2" t="n">
         <v>38.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>34.0</v>
-      </c>
       <c r="E2" t="n">
-        <v>31.0</v>
+        <v>14.0</v>
       </c>
       <c r="F2" t="s">
         <v>102</v>
@@ -4471,31 +4456,31 @@
         <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>8.5</v>
+        <v>8.0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.7425</v>
+        <v>48.87681</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.55933</v>
+        <v>-117.95097</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>462456.9499999998</v>
+        <v>514167.55000000016</v>
       </c>
       <c r="P2" t="n">
-        <v>191674.99999999997</v>
+        <v>206449.0999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4503,49 +4488,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>4545.0</v>
+        <v>234.0</v>
       </c>
       <c r="C3" t="n">
-        <v>40.0</v>
+        <v>22.0</v>
       </c>
       <c r="D3" t="n">
-        <v>27.0</v>
+        <v>39.0</v>
       </c>
       <c r="E3" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>76.0</v>
+        <v>1.5</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.96497</v>
+        <v>47.40419</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.40521</v>
+        <v>-117.84174</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
-        <v>390557.15000000026</v>
+        <v>523452.09999999986</v>
       </c>
       <c r="P3" t="n">
-        <v>216146.7000000001</v>
+        <v>44460.89999999998</v>
       </c>
     </row>
     <row r="4">
@@ -4553,10 +4538,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>146.0</v>
+        <v>378.0</v>
       </c>
       <c r="C4" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="D4" t="n">
         <v>44.0</v>
@@ -4565,37 +4550,37 @@
         <v>5.0</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>20.3</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.95184</v>
+        <v>48.30486</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.2689</v>
+        <v>-117.2654</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>572143.4999999998</v>
+        <v>572441.0</v>
       </c>
       <c r="P4" t="n">
-        <v>104702.39999999969</v>
+        <v>143534.59999999977</v>
       </c>
     </row>
     <row r="5">
@@ -4603,49 +4588,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>2755.0</v>
+        <v>8698.0</v>
       </c>
       <c r="C5" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E5" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>20.0</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.55652</v>
+        <v>48.0683</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.78743</v>
+        <v>-117.62218</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>528068.45</v>
+        <v>542114.7</v>
       </c>
       <c r="P5" t="n">
-        <v>61217.199999999895</v>
+        <v>117513.00000000007</v>
       </c>
     </row>
     <row r="6">
@@ -4653,49 +4638,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>8757.0</v>
+        <v>3823.0</v>
       </c>
       <c r="C6" t="n">
-        <v>33.0</v>
+        <v>28.0</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0</v>
+        <v>44.0</v>
       </c>
       <c r="E6" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="F6" t="s">
         <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>10.0</v>
+        <v>3.17</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.36729</v>
+        <v>47.91898</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.73101</v>
+        <v>-117.17789</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
-        <v>362864.1500000002</v>
+        <v>579879.3499999996</v>
       </c>
       <c r="P6" t="n">
-        <v>150401.89999999967</v>
+        <v>101087.79999999974</v>
       </c>
     </row>
     <row r="7">
@@ -4703,49 +4688,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>2893.0</v>
+        <v>5064.0</v>
       </c>
       <c r="C7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>37.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>28.0</v>
-      </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
       </c>
       <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.73594</v>
+        <v>48.13383</v>
       </c>
       <c r="L7" t="n">
-        <v>-119.32751</v>
+        <v>-118.1326</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>397161.6499999997</v>
+        <v>498729.0000000003</v>
       </c>
       <c r="P7" t="n">
-        <v>190953.39999999994</v>
+        <v>124721.30000000035</v>
       </c>
     </row>
     <row r="8">
@@ -4753,49 +4738,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>9246.0</v>
+        <v>12587.0</v>
       </c>
       <c r="C8" t="n">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="D8" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="E8" t="n">
-        <v>29.0</v>
+        <v>13.0</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>2.0</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.89415</v>
+        <v>48.61794</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.62943</v>
+        <v>-117.83814</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
-        <v>541498.4500000001</v>
+        <v>523758.1000000004</v>
       </c>
       <c r="P8" t="n">
-        <v>98356.50000000036</v>
+        <v>177973.3999999997</v>
       </c>
     </row>
     <row r="9">
@@ -4803,49 +4788,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>15191.0</v>
+        <v>15164.0</v>
       </c>
       <c r="C9" t="n">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
       <c r="D9" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="E9" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H9" t="n">
         <v>5.0</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.52388</v>
+        <v>48.14212</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.84359</v>
+        <v>-118.55221</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>523294.8499999995</v>
+        <v>463062.1499999998</v>
       </c>
       <c r="P9" t="n">
-        <v>167626.7999999998</v>
+        <v>125633.19999999984</v>
       </c>
     </row>
     <row r="10">
@@ -4853,49 +4838,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>3953.0</v>
+        <v>4565.0</v>
       </c>
       <c r="C10" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="D10" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.0</v>
+        <v>35.0</v>
       </c>
       <c r="F10" t="s">
         <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>14.3</v>
+        <v>2.0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.72508</v>
+        <v>48.31776</v>
       </c>
       <c r="L10" t="n">
-        <v>-119.32762</v>
+        <v>-120.05477</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>397152.30000000034</v>
+        <v>335344.5499999996</v>
       </c>
       <c r="P10" t="n">
-        <v>189758.7999999998</v>
+        <v>144953.59999999998</v>
       </c>
     </row>
     <row r="11">
@@ -4903,49 +4888,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>3177.0</v>
+        <v>3830.0</v>
       </c>
       <c r="C11" t="n">
-        <v>36.0</v>
+        <v>24.0</v>
       </c>
       <c r="D11" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="E11" t="n">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58882</v>
+        <v>47.59264</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.95588</v>
+        <v>-117.5595</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
-        <v>513750.20000000054</v>
+        <v>547442.5</v>
       </c>
       <c r="P11" t="n">
-        <v>174770.1999999998</v>
+        <v>65190.40000000032</v>
       </c>
     </row>
   </sheetData>
@@ -5014,49 +4999,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>4351.0</v>
+        <v>11509.0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.0</v>
+        <v>25.0</v>
       </c>
       <c r="D2" t="n">
-        <v>28.0</v>
+        <v>40.0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.71417</v>
+        <v>47.67758</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.26753</v>
+        <v>-117.69815</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>402259.95000000054</v>
+        <v>535657.2500000001</v>
       </c>
       <c r="P2" t="n">
-        <v>188558.7000000003</v>
+        <v>74533.79999999989</v>
       </c>
     </row>
     <row r="3">
@@ -5064,49 +5049,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>12119.0</v>
+        <v>1395.0</v>
       </c>
       <c r="C3" t="n">
-        <v>34.0</v>
+        <v>40.0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="E3" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
         <v>1.0</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.46246</v>
+        <v>48.96849</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.57882</v>
+        <v>-119.3228</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
-        <v>375800.30000000057</v>
+        <v>397561.99999999994</v>
       </c>
       <c r="P3" t="n">
-        <v>160870.6</v>
+        <v>216533.9000000003</v>
       </c>
     </row>
     <row r="4">
@@ -5114,49 +5099,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>2755.0</v>
+        <v>18859.0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.0</v>
+        <v>34.0</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>20.0</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="J4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.55652</v>
+        <v>47.36031</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.78743</v>
+        <v>-117.62049</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>528068.45</v>
+        <v>542258.3499999996</v>
       </c>
       <c r="P4" t="n">
-        <v>61217.199999999895</v>
+        <v>39634.09999999982</v>
       </c>
     </row>
     <row r="5">
@@ -5164,49 +5149,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>10218.0</v>
+        <v>19212.0</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0</v>
+        <v>24.0</v>
       </c>
       <c r="E5" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>9.3</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.83339</v>
+        <v>48.81715</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.72059</v>
+        <v>-119.75882</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>533749.8499999999</v>
+        <v>360500.3</v>
       </c>
       <c r="P5" t="n">
-        <v>91672.90000000015</v>
+        <v>199886.4999999998</v>
       </c>
     </row>
     <row r="6">
@@ -5214,49 +5199,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>125.0</v>
+        <v>5267.0</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="D6" t="n">
-        <v>45.0</v>
+        <v>22.0</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="F6" t="s">
         <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>7.3</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.0731</v>
+        <v>48.33207</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.1082</v>
+        <v>-120.03296</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
-        <v>585803.0000000003</v>
+        <v>337198.3999999998</v>
       </c>
       <c r="P6" t="n">
-        <v>118040.99999999962</v>
+        <v>146527.7000000002</v>
       </c>
     </row>
     <row r="7">
@@ -5264,49 +5249,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>18041.0</v>
+        <v>1560.0</v>
       </c>
       <c r="C7" t="n">
-        <v>34.0</v>
+        <v>24.0</v>
       </c>
       <c r="D7" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="E7" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
         <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>1.75</v>
+        <v>9.0</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.42171</v>
+        <v>47.5237</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.89775</v>
+        <v>-117.54742</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>518691.2499999998</v>
+        <v>548469.2999999998</v>
       </c>
       <c r="P7" t="n">
-        <v>156388.09999999971</v>
+        <v>57606.99999999979</v>
       </c>
     </row>
     <row r="8">
@@ -5314,49 +5299,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>6079.0</v>
+        <v>15655.0</v>
       </c>
       <c r="C8" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="F8" t="s">
         <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>2.15</v>
+        <v>49.0</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.73705</v>
+        <v>48.9683</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.8051</v>
+        <v>-118.78028</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
-        <v>526566.5000000003</v>
+        <v>443676.1999999996</v>
       </c>
       <c r="P8" t="n">
-        <v>191075.50000000038</v>
+        <v>216512.9999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5364,49 +5349,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>10011.0</v>
+        <v>18013.0</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.0</v>
+        <v>4.0</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.0</v>
+        <v>17.5</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.61559</v>
+        <v>48.29922</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.4513</v>
+        <v>-117.908</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>556639.4999999998</v>
+        <v>517819.9999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>67714.89999999972</v>
+        <v>142914.1999999998</v>
       </c>
     </row>
     <row r="10">
@@ -5414,49 +5399,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>11296.0</v>
+        <v>19529.0</v>
       </c>
       <c r="C10" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="D10" t="n">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="E10" t="n">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.41825</v>
+        <v>48.37533</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.88191</v>
+        <v>-119.6385</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>520037.6499999996</v>
+        <v>370727.5000000006</v>
       </c>
       <c r="P10" t="n">
-        <v>156007.50000000006</v>
+        <v>151286.29999999978</v>
       </c>
     </row>
     <row r="11">
@@ -5464,49 +5449,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>9879.0</v>
+        <v>3891.0</v>
       </c>
       <c r="C11" t="n">
-        <v>29.0</v>
+        <v>38.0</v>
       </c>
       <c r="D11" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>31.0</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>39.0</v>
+        <v>8.5</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.04436</v>
+        <v>48.7425</v>
       </c>
       <c r="L11" t="n">
-        <v>-118.61058</v>
+        <v>-118.55933</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
-        <v>458100.7000000001</v>
+        <v>462456.9499999998</v>
       </c>
       <c r="P11" t="n">
-        <v>114879.59999999973</v>
+        <v>191674.99999999997</v>
       </c>
     </row>
   </sheetData>
@@ -5575,49 +5560,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>19212.0</v>
+        <v>14901.0</v>
       </c>
       <c r="C2" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="D2" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>9.3</v>
+        <v>22.5</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.81715</v>
+        <v>48.32831</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.75882</v>
+        <v>-119.65997</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" t="n">
-        <v>360500.3</v>
+        <v>368902.5499999999</v>
       </c>
       <c r="P2" t="n">
-        <v>199886.4999999998</v>
+        <v>146114.1000000002</v>
       </c>
     </row>
     <row r="3">
@@ -5625,49 +5610,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>10678.0</v>
+        <v>14231.0</v>
       </c>
       <c r="C3" t="n">
-        <v>29.0</v>
+        <v>40.0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.00529</v>
+        <v>48.99019</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.94029</v>
+        <v>-119.35049</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" t="n">
-        <v>345075.3499999996</v>
+        <v>395208.35000000056</v>
       </c>
       <c r="P3" t="n">
-        <v>110581.90000000024</v>
+        <v>218920.89999999982</v>
       </c>
     </row>
     <row r="4">
@@ -5675,49 +5660,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>211.0</v>
+        <v>11324.0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.62865</v>
+        <v>47.69592</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.49725</v>
+        <v>-117.72511</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>382733.7500000005</v>
+        <v>533365.6499999999</v>
       </c>
       <c r="P4" t="n">
-        <v>179151.50000000003</v>
+        <v>76551.20000000011</v>
       </c>
     </row>
     <row r="5">
@@ -5725,49 +5710,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>17450.0</v>
+        <v>15990.0</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>26.0</v>
+        <v>1.1</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.97833</v>
+        <v>47.51294</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.76519</v>
+        <v>-117.14023</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>529958.8499999996</v>
+        <v>583080.4499999998</v>
       </c>
       <c r="P5" t="n">
-        <v>107616.29999999997</v>
+        <v>56423.400000000045</v>
       </c>
     </row>
     <row r="6">
@@ -5775,49 +5760,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>1754.0</v>
+        <v>19501.0</v>
       </c>
       <c r="C6" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="D6" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="E6" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.91252</v>
+        <v>47.84054</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.31815</v>
+        <v>-117.23187</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
-        <v>567957.2499999998</v>
+        <v>575291.0499999999</v>
       </c>
       <c r="P6" t="n">
-        <v>100377.20000000007</v>
+        <v>92459.39999999969</v>
       </c>
     </row>
     <row r="7">
@@ -5825,49 +5810,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>18181.0</v>
+        <v>14936.0</v>
       </c>
       <c r="C7" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>36.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>40.0</v>
-      </c>
       <c r="E7" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H7" t="n">
-        <v>1.8</v>
+        <v>20.0</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.72877</v>
+        <v>47.63001</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.8172</v>
+        <v>-118.2725</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" t="n">
-        <v>525538.0</v>
+        <v>486837.5000000005</v>
       </c>
       <c r="P7" t="n">
-        <v>80164.69999999969</v>
+        <v>69301.09999999985</v>
       </c>
     </row>
     <row r="8">
@@ -5875,49 +5860,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>16954.0</v>
+        <v>7349.0</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="D8" t="n">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
       <c r="E8" t="n">
-        <v>31.0</v>
+        <v>25.0</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>5.54</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.53092</v>
+        <v>47.9026</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.55307</v>
+        <v>-118.22504</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" t="n">
-        <v>547989.0499999996</v>
+        <v>490871.5999999994</v>
       </c>
       <c r="P8" t="n">
-        <v>58401.2000000002</v>
+        <v>99285.99999999996</v>
       </c>
     </row>
     <row r="9">
@@ -5925,49 +5910,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>5049.0</v>
+        <v>9027.0</v>
       </c>
       <c r="C9" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="E9" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="H9" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.75299</v>
+        <v>47.8219</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.55818</v>
+        <v>-117.31751</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O9" t="n">
-        <v>547554.7000000007</v>
+        <v>568011.6500000001</v>
       </c>
       <c r="P9" t="n">
-        <v>82828.89999999966</v>
+        <v>90408.99999999994</v>
       </c>
     </row>
     <row r="10">
@@ -5975,49 +5960,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>14741.0</v>
+        <v>17457.0</v>
       </c>
       <c r="C10" t="n">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
       <c r="D10" t="n">
         <v>39.0</v>
       </c>
       <c r="E10" t="n">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>8.0</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.41153</v>
+        <v>47.84796</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.84327</v>
+        <v>-117.88406</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
-        <v>523322.04999999964</v>
+        <v>519854.89999999956</v>
       </c>
       <c r="P10" t="n">
-        <v>155268.2999999999</v>
+        <v>93275.60000000005</v>
       </c>
     </row>
     <row r="11">
@@ -6025,49 +6010,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>15299.0</v>
+        <v>9899.0</v>
       </c>
       <c r="C11" t="n">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="D11" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="E11" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="H11" t="n">
-        <v>8.8</v>
+        <v>1.2</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.60525</v>
+        <v>47.92354</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.99025</v>
+        <v>-117.46312</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
-        <v>510828.7499999997</v>
+        <v>555634.7999999997</v>
       </c>
       <c r="P11" t="n">
-        <v>176577.4999999998</v>
+        <v>101589.4000000003</v>
       </c>
     </row>
   </sheetData>
